--- a/StatsWJW.xlsx
+++ b/StatsWJW.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebSite" sheetId="3" r:id="rId1"/>
     <sheet name="Guangdong" sheetId="1" r:id="rId2"/>
-    <sheet name="Hainan" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
+    <sheet name="Hainan" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Infected</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +502,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -563,10 +565,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guangdong!$D$2:$D$18</c:f>
+              <c:f>Guangdong!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>19.0</c:v>
                 </c:pt>
@@ -617,16 +619,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guangdong!$E$2:$E$18</c:f>
+              <c:f>Guangdong!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -677,6 +688,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>604.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,11 +711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1027008512"/>
-        <c:axId val="1027012784"/>
+        <c:axId val="95136800"/>
+        <c:axId val="95140960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1027008512"/>
+        <c:axId val="95136800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,12 +771,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027012784"/>
+        <c:crossAx val="95140960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1027012784"/>
+        <c:axId val="95140960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +833,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027008512"/>
+        <c:crossAx val="95136800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,11 +1045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1026098384"/>
-        <c:axId val="1026292096"/>
+        <c:axId val="95250096"/>
+        <c:axId val="95254448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1026098384"/>
+        <c:axId val="95250096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,12 +1105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026292096"/>
+        <c:crossAx val="95254448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1026292096"/>
+        <c:axId val="95254448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026098384"/>
+        <c:crossAx val="95250096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2312,15 +2332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2642,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:E18"/>
+      <selection activeCell="E21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D18" si="0">B3+C3/24</f>
+        <f t="shared" ref="D3:D21" si="0">B3+C3/24</f>
         <v>21.75</v>
       </c>
       <c r="E3">
@@ -3320,6 +3340,60 @@
       </c>
       <c r="E18">
         <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19+C19/24+31</f>
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D21" si="1">B20+C20/24+31</f>
+        <v>32.5</v>
+      </c>
+      <c r="E20">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3330,6 +3404,316 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>

--- a/StatsWJW.xlsx
+++ b/StatsWJW.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WebSite" sheetId="3" r:id="rId1"/>
     <sheet name="Guangdong" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
-    <sheet name="Hainan" sheetId="2" r:id="rId4"/>
+    <sheet name="GdDetail" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
+    <sheet name="Hainan" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Infected</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +412,82 @@
     <rPh sb="0" eb="1">
       <t>zan wu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>阳江</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>清远</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>揭阳</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>汕尾</t>
+  </si>
+  <si>
+    <t>茂名</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>AbsTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95136800"/>
-        <c:axId val="95140960"/>
+        <c:axId val="-147547936"/>
+        <c:axId val="-147562096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95136800"/>
+        <c:axId val="-147547936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,12 +848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95140960"/>
+        <c:crossAx val="-147562096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95140960"/>
+        <c:axId val="-147562096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +910,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95136800"/>
+        <c:crossAx val="-147547936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -883,6 +960,1188 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GdDetail!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>深圳</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GdDetail!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GdDetail!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>196.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-81694592"/>
+        <c:axId val="-81696368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-81694592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-81696368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-81696368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-81694592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GdDetail!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>广州</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GdDetail!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GdDetail!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-78478784"/>
+        <c:axId val="-132317840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-78478784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-132317840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-132317840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-78478784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GdDetail!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>珠海</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GdDetail!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GdDetail!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-77733904"/>
+        <c:axId val="-77668320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-77733904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-77668320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-77668320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-77733904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1045,11 +2304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95250096"/>
-        <c:axId val="95254448"/>
+        <c:axId val="-149966112"/>
+        <c:axId val="-146799776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95250096"/>
+        <c:axId val="-149966112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +2364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95254448"/>
+        <c:crossAx val="-146799776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95254448"/>
+        <c:axId val="-146799776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +2425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95250096"/>
+        <c:crossAx val="-149966112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1295,6 +2554,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1812,6 +3191,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2363,6 +5290,105 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3008,10 +6034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:E21"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3019,7 +6045,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3035,8 +6061,68 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3053,8 +6139,68 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3065,14 +6211,74 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D21" si="0">B3+C3/24</f>
+        <f t="shared" ref="D3:D18" si="0">B3+C3/24</f>
         <v>21.75</v>
       </c>
       <c r="E3">
         <v>17</v>
       </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3089,8 +6295,68 @@
       <c r="E4">
         <v>26</v>
       </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3107,8 +6373,68 @@
       <c r="E5">
         <v>32</v>
       </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3125,8 +6451,68 @@
       <c r="E6">
         <v>53</v>
       </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3143,8 +6529,68 @@
       <c r="E7">
         <v>78</v>
       </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3161,8 +6607,68 @@
       <c r="E8">
         <v>111</v>
       </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3179,8 +6685,68 @@
       <c r="E9">
         <v>146</v>
       </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3197,8 +6763,68 @@
       <c r="E10">
         <v>151</v>
       </c>
+      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3215,8 +6841,68 @@
       <c r="E11">
         <v>188</v>
       </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3233,8 +6919,68 @@
       <c r="E12">
         <v>207</v>
       </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3251,8 +6997,68 @@
       <c r="E13">
         <v>241</v>
       </c>
+      <c r="F13">
+        <v>86</v>
+      </c>
+      <c r="G13">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3269,8 +7075,68 @@
       <c r="E14">
         <v>272</v>
       </c>
+      <c r="F14">
+        <v>98</v>
+      </c>
+      <c r="G14">
+        <v>94</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3287,8 +7153,68 @@
       <c r="E15">
         <v>311</v>
       </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3305,8 +7231,68 @@
       <c r="E16">
         <v>354</v>
       </c>
+      <c r="F16">
+        <v>134</v>
+      </c>
+      <c r="G16">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3323,8 +7309,68 @@
       <c r="E17">
         <v>393</v>
       </c>
+      <c r="F17">
+        <v>170</v>
+      </c>
+      <c r="G17">
+        <v>137</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3341,8 +7387,68 @@
       <c r="E18">
         <v>436</v>
       </c>
+      <c r="F18">
+        <v>170</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>39</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3359,8 +7465,68 @@
       <c r="E19">
         <v>520</v>
       </c>
+      <c r="F19">
+        <v>196</v>
+      </c>
+      <c r="G19">
+        <v>175</v>
+      </c>
+      <c r="H19">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3378,7 +7544,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3405,315 +7571,1459 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2+(A2-1)*31+C2/24</f>
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">B3+(A3-1)*31+C3/24</f>
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>17</v>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>151</v>
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="E10">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>188</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>207</v>
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>241</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>272</v>
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="E14">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>311</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
+      <c r="F15">
+        <v>106</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>354</v>
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="E16">
+        <v>134</v>
+      </c>
+      <c r="F16">
+        <v>112</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>393</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>137</v>
+      </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>436</v>
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="E18">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>604</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>196</v>
+      </c>
+      <c r="F19">
+        <v>175</v>
+      </c>
+      <c r="G19">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <v>39</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>

--- a/StatsWJW.xlsx
+++ b/StatsWJW.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebSite" sheetId="3" r:id="rId1"/>
     <sheet name="Guangdong" sheetId="1" r:id="rId2"/>
     <sheet name="GdDetail" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
+    <sheet name="AhDetail" sheetId="5" r:id="rId4"/>
     <sheet name="Hainan" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>Infected</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,54 @@
     <t>Hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>淮北</t>
+  </si>
+  <si>
+    <t>亳州</t>
+  </si>
+  <si>
+    <t>宿州</t>
+  </si>
+  <si>
+    <t>蚌埠</t>
+  </si>
+  <si>
+    <t>阜阳</t>
+  </si>
+  <si>
+    <t>淮南</t>
+  </si>
+  <si>
+    <t>滁州</t>
+  </si>
+  <si>
+    <t>六安</t>
+  </si>
+  <si>
+    <t>马鞍</t>
+  </si>
+  <si>
+    <t>芜湖</t>
+  </si>
+  <si>
+    <t>宣城</t>
+  </si>
+  <si>
+    <t>铜陵</t>
+  </si>
+  <si>
+    <t>池州</t>
+  </si>
+  <si>
+    <t>安庆</t>
+  </si>
+  <si>
+    <t>黄山</t>
+  </si>
 </sst>
 </file>
 
@@ -959,6 +1007,697 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AhDetail!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>亳州</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AhDetail!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.41666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AhDetail!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-69597744"/>
+        <c:axId val="-69593376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-69597744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="21.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-69593376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-69593376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-69597744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hainan!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hainan!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-149966112"/>
+        <c:axId val="-146799776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-149966112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-146799776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-146799776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-149966112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1189,6 +1928,8 @@
         <c:axId val="-81694592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="34.0"/>
+          <c:min val="21.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1576,13 +2317,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-78478784"/>
-        <c:axId val="-132317840"/>
+        <c:axId val="-79802032"/>
+        <c:axId val="-132629184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-78478784"/>
+        <c:axId val="-79802032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="34.0"/>
+          <c:min val="21.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1636,12 +2379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132317840"/>
+        <c:crossAx val="-132629184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-132317840"/>
+        <c:axId val="-132629184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +2441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-78478784"/>
+        <c:crossAx val="-79802032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1970,13 +2713,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-77733904"/>
-        <c:axId val="-77668320"/>
+        <c:axId val="-40079824"/>
+        <c:axId val="-39437152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-77733904"/>
+        <c:axId val="-40079824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="34.0"/>
+          <c:min val="21.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2030,12 +2775,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-77668320"/>
+        <c:crossAx val="-39437152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-77668320"/>
+        <c:axId val="-39437152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-77733904"/>
+        <c:crossAx val="-40079824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2156,6 +2901,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2194,8 +2940,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GdDetail!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>佛山</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2218,78 +2975,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hainan!$D$2:$D$11</c:f>
+              <c:f>GdDetail!$D$2:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>53.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>26.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.0</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.0</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.0</c:v>
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hainan!$E$2:$E$11</c:f>
+              <c:f>GdDetail!$H$2:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.0</c:v>
+                <c:pt idx="16">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,13 +3109,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-149966112"/>
-        <c:axId val="-146799776"/>
+        <c:axId val="-45161184"/>
+        <c:axId val="-81682720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-149966112"/>
+        <c:axId val="-45161184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="34.0"/>
+          <c:min val="21.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2364,12 +3171,768 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-146799776"/>
+        <c:crossAx val="-81682720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-146799776"/>
+        <c:axId val="-81682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-45161184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GdDetail!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>东莞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GdDetail!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GdDetail!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-81257120"/>
+        <c:axId val="-79394896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-81257120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="34.0"/>
+          <c:min val="21.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-79394896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-79394896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-81257120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AhDetail!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>合肥</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AhDetail!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.41666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AhDetail!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-132465680"/>
+        <c:axId val="-76889296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-132465680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="21.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-76889296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-76889296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +3988,723 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-149966112"/>
+        <c:crossAx val="-132465680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AhDetail!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>阜阳</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AhDetail!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.41666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AhDetail!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-184866544"/>
+        <c:axId val="-72487472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-184866544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="21.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-72487472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-72487472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-184866544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AhDetail!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安庆</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AhDetail!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.41666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AhDetail!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-72662864"/>
+        <c:axId val="-130857184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-72662864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="21.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-130857184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-130857184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-72662864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2475,6 +4754,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2674,6 +5033,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3190,7 +5709,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3706,7 +6225,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4222,7 +6741,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4738,7 +7257,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5299,8 +10914,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -5323,20 +10938,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5355,20 +10970,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5385,10 +11000,205 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5689,7 +11499,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7573,8 +13383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9012,14 +14822,836 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <f>B2+(A2-1)*31+C2/24</f>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">B3+(A3-1)*31+C3/24</f>
+        <v>23.416666666666668</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>18</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>37</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>27</v>
+      </c>
+      <c r="O13">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
